--- a/Product Backlog - Actividades.xlsx
+++ b/Product Backlog - Actividades.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>TOTAL</t>
   </si>
@@ -69,82 +66,214 @@
     <t>Semana 6-11 Junio</t>
   </si>
   <si>
-    <t>Educción de requisitos</t>
-  </si>
-  <si>
-    <t>Creación de prototipo</t>
-  </si>
-  <si>
-    <t>Definición casos de uso</t>
-  </si>
-  <si>
-    <t>Creación bosquejo diagrama de clases</t>
-  </si>
-  <si>
-    <t>Creación modelo relacional</t>
-  </si>
-  <si>
-    <t>Diseño de historias de usuario</t>
-  </si>
-  <si>
-    <t>Creacion diagramas de secuencia</t>
-  </si>
-  <si>
-    <t>Planeación y distribución desarrollo de software</t>
-  </si>
-  <si>
-    <t>Desarrollo de aplicación (Sin dividir ni estimar)</t>
-  </si>
-  <si>
-    <t>Prueba de software</t>
-  </si>
-  <si>
-    <t>Revicion y corrección de errores</t>
-  </si>
-  <si>
-    <t>Creación manual de instalación</t>
-  </si>
-  <si>
-    <t>Creación manual de usuario</t>
-  </si>
-  <si>
-    <t>Reunion con stakeholder (Muestra de prototipo)</t>
-  </si>
-  <si>
-    <t>Reunion con stakeholder (Muestra historias de usuario)</t>
-  </si>
-  <si>
-    <t>Reunion con stakeholder (Muestra de funcionamiento)</t>
-  </si>
-  <si>
-    <t>El cronograma se completara al realizar la primera planeación de Sprint, algunos items no cuentan con un tiempo definido ya que la distribución de tareas no se ha realizado.</t>
-  </si>
-  <si>
-    <t>Team:</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Askar Rodríguez</t>
-  </si>
-  <si>
-    <t>Danny Fernando Cruz Arango</t>
-  </si>
-  <si>
-    <t>Carlos Andrés Riascos Pareja</t>
-  </si>
-  <si>
-    <t>Juan Camilo Narváez Rodríguez</t>
-  </si>
-  <si>
     <t>Tiempo restante (estimado)</t>
   </si>
   <si>
     <t>Tiempo restante (gastado)</t>
+  </si>
+  <si>
+    <t>1.1.1 Diseño de datos</t>
+  </si>
+  <si>
+    <t>1.2.1 Especificacion funcional</t>
+  </si>
+  <si>
+    <t>1.2.2 Requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>1.2.3 Requerimientos no funcionales</t>
+  </si>
+  <si>
+    <t>1.3.1 Diseño funcional</t>
+  </si>
+  <si>
+    <t>1.3.2 Diseño técnico</t>
+  </si>
+  <si>
+    <t>1.3.3 Casos de prueba</t>
+  </si>
+  <si>
+    <t>1.4.1 Preparación de ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>1.4.2 Base de datos</t>
+  </si>
+  <si>
+    <t>1.4.3 Lógica de módulo</t>
+  </si>
+  <si>
+    <t>1.5.1 Ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>1.5.2 Pruebas integrales</t>
+  </si>
+  <si>
+    <t>1.5.3 Pruebas de aceptacion de usuario</t>
+  </si>
+  <si>
+    <t>Primer Sprint</t>
+  </si>
+  <si>
+    <t>2.1.1 Diseño de datos</t>
+  </si>
+  <si>
+    <t>2.2.1 Especificacion funcional</t>
+  </si>
+  <si>
+    <t>2.2.2 Requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>2.2.3 Requerimientos no funcionales</t>
+  </si>
+  <si>
+    <t>2.3.1 Diseño funcional</t>
+  </si>
+  <si>
+    <t>2.3.2 Diseño técnico</t>
+  </si>
+  <si>
+    <t>2.3.3 Casos de prueba</t>
+  </si>
+  <si>
+    <t>2.4.1 Preparación de ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>2.4.2 Base de datos</t>
+  </si>
+  <si>
+    <t>2.4.3 Lógica de módulo</t>
+  </si>
+  <si>
+    <t>2.5.1 Ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>2.5.2 Pruebas integrales</t>
+  </si>
+  <si>
+    <t>2.5.3 Pruebas de aceptacion de usuario</t>
+  </si>
+  <si>
+    <t>3.1.1 Diseño de datos</t>
+  </si>
+  <si>
+    <t>3.2.1 Especificacion funcional</t>
+  </si>
+  <si>
+    <t>3.2.2 Requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>3.2.3 Requerimientos no funcionales</t>
+  </si>
+  <si>
+    <t>3.3.1 Diseño funcional</t>
+  </si>
+  <si>
+    <t>3.3.2 Diseño técnico</t>
+  </si>
+  <si>
+    <t>3.3.3 Casos de prueba</t>
+  </si>
+  <si>
+    <t>3.4.1 Preparación de ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>3.4.2 Base de datos</t>
+  </si>
+  <si>
+    <t>3.4.3 Lógica de módulo</t>
+  </si>
+  <si>
+    <t>3.5.1 Ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>3.5.2 Pruebas integrales</t>
+  </si>
+  <si>
+    <t>3.5.3 Pruebas de aceptacion de usuario</t>
+  </si>
+  <si>
+    <t>4.1.1 Diseño de datos</t>
+  </si>
+  <si>
+    <t>4.2.1 Especificacion funcional</t>
+  </si>
+  <si>
+    <t>4.2.2 Requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>4.2.3 Requerimientos no funcionales</t>
+  </si>
+  <si>
+    <t>4.3.1 Diseño funcional</t>
+  </si>
+  <si>
+    <t>4.3.2 Diseño técnico</t>
+  </si>
+  <si>
+    <t>4.3.3 Casos de prueba</t>
+  </si>
+  <si>
+    <t>4.4.1 Preparación de ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>4.4.2 Base de datos</t>
+  </si>
+  <si>
+    <t>4.4.3 Lógica de módulo</t>
+  </si>
+  <si>
+    <t>4.5.1 Ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>4.5.2 Pruebas integrales</t>
+  </si>
+  <si>
+    <t>4.5.3 Pruebas de aceptacion de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Sprint </t>
+  </si>
+  <si>
+    <t>Tercer Sprint</t>
+  </si>
+  <si>
+    <t>Cuarto Sprint</t>
+  </si>
+  <si>
+    <t>5.1.1 Acta de constitución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.2 Definición del alcance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3 Creación del EDT </t>
+  </si>
+  <si>
+    <t>5.1.4 Actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.5 Cronograma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.6 Seguimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.7 Cierre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.8 Manual de usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.9 Acta de capacitación </t>
+  </si>
+  <si>
+    <t>Actividades Administrativas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -211,26 +340,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +383,32 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -467,11 +619,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -598,12 +778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,23 +811,617 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFADCB3"/>
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -855,17 +1623,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -880,7 +1645,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cronograma!$C$38</c:f>
+              <c:f>Cronograma!$C$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,77 +1668,77 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Cronograma!$D$37:$L$37</c:f>
+              <c:f>Cronograma!$D$83:$L$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cronograma!$D$38:$L$38</c:f>
+              <c:f>Cronograma!$D$84:$L$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8171-4D0D-9324-B24C90FE6882}"/>
             </c:ext>
@@ -987,11 +1752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1891551204"/>
-        <c:axId val="1241694150"/>
+        <c:axId val="89037824"/>
+        <c:axId val="91812992"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1891551204"/>
+        <c:axId val="89037824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1795,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241694150"/>
+        <c:crossAx val="91812992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1803,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241694150"/>
+        <c:axId val="91812992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1847,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1891551204"/>
+        <c:crossAx val="89037824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1110,13 +1875,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1182,7 +1947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1217,7 +1982,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1394,7 +2159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1402,13 +2167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM101"/>
+  <dimension ref="A1:BM147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1456,7 +2221,7 @@
       <c r="K1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="47" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="40"/>
@@ -1525,7 +2290,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1581,20 +2346,12 @@
       <c r="BM2" s="3"/>
     </row>
     <row r="3" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C8" si="0">IF(B3&lt;SUM(E3:BL3),SUM(E3:BL3),B3)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D8" si="1">IF(C3&gt;B3,$C3-(SUM($E3:$BM3)),$B3-(SUM($E3:$BM3)))</f>
-        <v>4</v>
-      </c>
+      <c r="A3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1602,7 +2359,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="44"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1658,894 +2415,1108 @@
       <c r="BM3" s="11"/>
     </row>
     <row r="4" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="A4" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
       <c r="BM4" s="15"/>
     </row>
     <row r="5" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="69"/>
       <c r="BM5" s="15"/>
     </row>
     <row r="6" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="70"/>
+      <c r="BM6" s="15"/>
+    </row>
+    <row r="7" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="70"/>
+      <c r="BM7" s="15"/>
+    </row>
+    <row r="8" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="70"/>
+      <c r="BM8" s="15"/>
+    </row>
+    <row r="9" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="44"/>
+      <c r="BM9" s="15"/>
+    </row>
+    <row r="10" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="13"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13"/>
+      <c r="L11" s="43"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+    </row>
+    <row r="12" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13"/>
+      <c r="L12" s="43"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+    </row>
+    <row r="13" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="13"/>
+      <c r="L13" s="43"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+    </row>
+    <row r="14" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="13"/>
+      <c r="L14" s="43"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="13"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13"/>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="13"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="L21" s="43"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="L22" s="43"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="13"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="13"/>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="13"/>
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="13"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="13"/>
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="13"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="13"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="13"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="13"/>
+      <c r="L35" s="43"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="13"/>
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="13"/>
+      <c r="L37" s="43"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="13"/>
+      <c r="L38" s="43"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="13"/>
+      <c r="L39" s="43"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="13"/>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="13"/>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="13"/>
+      <c r="L42" s="43"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="13"/>
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="13"/>
+      <c r="L44" s="43"/>
+    </row>
+    <row r="45" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="L45" s="59"/>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="13"/>
+      <c r="L46" s="43"/>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="13"/>
+      <c r="L47" s="43"/>
+    </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="13"/>
+      <c r="L48" s="43"/>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="13"/>
+      <c r="L49" s="43"/>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="13"/>
+      <c r="L50" s="43"/>
+    </row>
+    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="13"/>
+      <c r="L51" s="43"/>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="13"/>
+      <c r="L52" s="43"/>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="13"/>
+      <c r="L53" s="43"/>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="13"/>
+      <c r="L54" s="43"/>
+    </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="13"/>
+      <c r="L55" s="43"/>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="13"/>
+      <c r="L56" s="43"/>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="13"/>
+      <c r="L57" s="43"/>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="13"/>
+      <c r="L58" s="43"/>
+    </row>
+    <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="13"/>
+      <c r="L59" s="43"/>
+    </row>
+    <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="13"/>
+      <c r="L60" s="43"/>
+    </row>
+    <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="13"/>
+      <c r="L61" s="43"/>
+    </row>
+    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="13"/>
+      <c r="L62" s="43"/>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="13"/>
+      <c r="L63" s="43"/>
+    </row>
+    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="13"/>
+      <c r="L64" s="43"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="13"/>
+      <c r="L65" s="43"/>
+    </row>
+    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="13"/>
+      <c r="L66" s="43"/>
+    </row>
+    <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="13"/>
+      <c r="L67" s="43"/>
+    </row>
+    <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="13"/>
+      <c r="L68" s="43"/>
+    </row>
+    <row r="69" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="13"/>
+      <c r="L69" s="43"/>
+    </row>
+    <row r="70" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="6">
+        <f t="shared" ref="C56:C80" si="0">IF(B70&lt;SUM(E70:L70),SUM(E70:L70),B70)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" ref="D56:D80" si="1">IF(C70&gt;B70,$C70-(SUM($E70:$L70)),$B70-(SUM($E70:$L70)))</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="L70" s="43"/>
+    </row>
+    <row r="71" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="BM6" s="15"/>
-    </row>
-    <row r="7" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="L71" s="43"/>
+    </row>
+    <row r="72" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="L72" s="43"/>
+    </row>
+    <row r="73" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="L73" s="43"/>
+    </row>
+    <row r="74" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="L74" s="43"/>
+    </row>
+    <row r="75" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="L75" s="43"/>
+    </row>
+    <row r="76" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="L76" s="43"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="L77" s="43"/>
+    </row>
+    <row r="78" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="L78" s="43"/>
+    </row>
+    <row r="79" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="L79" s="43"/>
+    </row>
+    <row r="80" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="45"/>
+    </row>
+    <row r="81" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="23">
+        <f>SUM(B3:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="24">
+        <f>SUM(C3:C80)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="24">
+        <f>SUM(D3:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="25">
+        <f t="shared" ref="E81:L81" si="2">SUM(E3:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="27">
+        <f>B81-SUM(E82:L82)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="50"/>
+    </row>
+    <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="BM7" s="15"/>
-    </row>
-    <row r="8" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="46"/>
-      <c r="BM8" s="15"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" ref="C9:C34" si="2">IF(B9&lt;SUM(E9:L9),SUM(E9:L9),B9)</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" ref="D9:D34" si="3">IF(C9&gt;B9,$C9-(SUM($E9:$L9)),$B9-(SUM($E9:$L9)))</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="L9" s="46"/>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="12">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="D83" s="35">
+        <f>B81</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="36">
+        <f t="shared" ref="E83:L83" si="3">D83-E82</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="36">
+        <f>E83-F82</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="36">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="L10" s="45"/>
-      <c r="N10" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-    </row>
-    <row r="11" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="L11" s="45"/>
-      <c r="N11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-    </row>
-    <row r="12" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="I83" s="36">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="L12" s="45"/>
-      <c r="N12" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-    </row>
-    <row r="13" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="L13" s="45"/>
-      <c r="N13" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-    </row>
-    <row r="14" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="K83" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="51">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="16" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="L16" s="45"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="12">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="L19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="L24" s="45"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="L25" s="45"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="L26" s="45"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="L30" s="45"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="L31" s="45"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="L33" s="45"/>
-    </row>
-    <row r="34" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="23">
-        <f t="shared" ref="B35:D35" si="4">SUM(B3:B34)</f>
-        <v>54</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="D84" s="35">
+        <f>C81</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="46">
+        <f>$C$81-SUM(E$3:E$80)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="46">
+        <f t="shared" ref="F84:L84" si="4">E84-SUM(F3:F80)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="46">
         <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H84" s="46">
         <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" ref="E35" si="5">SUM(E3:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" ref="F35:L35" si="6">SUM(F3:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="27">
-        <f>B35-SUM(E36:L36)</f>
-        <v>54</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="52"/>
-    </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="35">
-        <f>B35</f>
-        <v>54</v>
-      </c>
-      <c r="E37" s="36">
-        <f t="shared" ref="E37:L37" si="7">D37-E36</f>
-        <v>54</v>
-      </c>
-      <c r="F37" s="36">
-        <f>E37-F36</f>
-        <v>54</v>
-      </c>
-      <c r="G37" s="36">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="H37" s="36">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="I37" s="36">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="J37" s="36">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="K37" s="36">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="L37" s="53">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="35">
-        <f>C35</f>
-        <v>54</v>
-      </c>
-      <c r="E38" s="48">
-        <f>$C$35-SUM(E$3:E$34)</f>
-        <v>54</v>
-      </c>
-      <c r="F38" s="48">
-        <f t="shared" ref="F38:L38" si="8">E38-SUM(F3:F34)</f>
-        <v>54</v>
-      </c>
-      <c r="G38" s="48">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="H38" s="48">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="I38" s="48">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="J38" s="48">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="K38" s="48">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="L38" s="54">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-    </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-    </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-    </row>
-    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-    </row>
-    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-    </row>
-    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-    </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-    </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-    </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-    </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-    </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
-    </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-    </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-    </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-    </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-    </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-    </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-    </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-    </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
-    </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
-    </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-    </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
-    </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="37"/>
-    </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="37"/>
-    </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
-    </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
-    </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-    </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-    </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-    </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-    </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-    </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-    </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-    </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-    </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
-    </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-    </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-    </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-    </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-    </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-    </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-    </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-    </row>
-    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-    </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="37"/>
-    </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
     </row>
-    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
     </row>
-    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
     </row>
     <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2563,76 +3534,385 @@
     <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
     </row>
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="37"/>
+    </row>
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="37"/>
+    </row>
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="37"/>
+    </row>
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="37"/>
+    </row>
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="37"/>
+    </row>
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="37"/>
+    </row>
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="37"/>
+    </row>
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="37"/>
+    </row>
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="37"/>
+    </row>
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="37"/>
+    </row>
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="37"/>
+    </row>
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="37"/>
+    </row>
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="37"/>
+    </row>
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="37"/>
+    </row>
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="37"/>
+    </row>
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="37"/>
+    </row>
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="37"/>
+    </row>
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="37"/>
+    </row>
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="37"/>
+    </row>
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="37"/>
+    </row>
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="37"/>
+    </row>
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="37"/>
+    </row>
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="37"/>
+    </row>
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="37"/>
+    </row>
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="37"/>
+    </row>
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="37"/>
+    </row>
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="37"/>
+    </row>
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="37"/>
+    </row>
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="37"/>
+    </row>
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="37"/>
+    </row>
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+    </row>
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="37"/>
+    </row>
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="37"/>
+    </row>
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+    </row>
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="37"/>
+    </row>
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+    </row>
+    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="37"/>
+    </row>
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="37"/>
+    </row>
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="37"/>
+    </row>
+    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="37"/>
+    </row>
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="37"/>
+    </row>
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="37"/>
+    </row>
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="37"/>
+    </row>
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="37"/>
+    </row>
+    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="37"/>
+    </row>
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="M4:Q7"/>
-    <mergeCell ref="N10:R10"/>
+  <mergeCells count="4">
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A37:L38">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A83:L84">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="D82">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="C82">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BM3 E8:BM9 E4:M4 E5:L7 R4:BM7 E14:BM34 E10:N13 S10:BM13">
+  <conditionalFormatting sqref="E3:BM4 E9:BM10 E5:M5 E6:L8 R5:BM8 E15:BM41 E11:N14 S11:BM14 E52:BM58 E68:BM80">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:BM51">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D51">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D51">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D51">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:BM67">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:BM66">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D66">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D66">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D66">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:BM64">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:BM63">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:BM62">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:BM61">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
+  <conditionalFormatting sqref="D60:D61">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="D60:D61">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D60:D61">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="E59:BM59">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Product Backlog - Actividades.xlsx
+++ b/Product Backlog - Actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\ProyectoEAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7590"/>
   </bookViews>
@@ -10,8 +15,7 @@
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -814,56 +818,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,6 +1626,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1630,7 +1637,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1752,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89037824"/>
-        <c:axId val="91812992"/>
+        <c:axId val="240641568"/>
+        <c:axId val="240639216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="89037824"/>
+        <c:axId val="240641568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1792,10 +1798,10 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91812992"/>
+        <c:crossAx val="240639216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1809,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91812992"/>
+        <c:axId val="240639216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1831,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1844,17 +1849,16 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037824"/>
+        <c:crossAx val="240641568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2159,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2346,7 +2350,7 @@
       <c r="BM2" s="3"/>
     </row>
     <row r="3" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="5"/>
@@ -2415,7 +2419,7 @@
       <c r="BM3" s="11"/>
     </row>
     <row r="4" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="17"/>
@@ -2484,7 +2488,7 @@
       <c r="BM4" s="15"/>
     </row>
     <row r="5" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="12"/>
@@ -2494,11 +2498,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="L5" s="43"/>
-      <c r="M5" s="69"/>
+      <c r="M5" s="68"/>
       <c r="BM5" s="15"/>
     </row>
     <row r="6" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12"/>
@@ -2509,11 +2513,11 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="L6" s="43"/>
-      <c r="M6" s="70"/>
+      <c r="M6" s="69"/>
       <c r="BM6" s="15"/>
     </row>
     <row r="7" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="12"/>
@@ -2522,11 +2526,11 @@
       <c r="E7" s="13"/>
       <c r="H7" s="14"/>
       <c r="L7" s="43"/>
-      <c r="M7" s="70"/>
+      <c r="M7" s="69"/>
       <c r="BM7" s="15"/>
     </row>
     <row r="8" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="12"/>
@@ -2536,11 +2540,11 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="70"/>
+      <c r="M8" s="69"/>
       <c r="BM8" s="15"/>
     </row>
     <row r="9" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="12"/>
@@ -2552,7 +2556,7 @@
       <c r="BM9" s="15"/>
     </row>
     <row r="10" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="12"/>
@@ -2562,7 +2566,7 @@
       <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="12"/>
@@ -2570,14 +2574,14 @@
       <c r="D11" s="7"/>
       <c r="E11" s="13"/>
       <c r="L11" s="43"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="12"/>
@@ -2585,14 +2589,14 @@
       <c r="D12" s="7"/>
       <c r="E12" s="13"/>
       <c r="L12" s="43"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="12"/>
@@ -2600,14 +2604,14 @@
       <c r="D13" s="7"/>
       <c r="E13" s="13"/>
       <c r="L13" s="43"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="12"/>
@@ -2615,14 +2619,14 @@
       <c r="D14" s="7"/>
       <c r="E14" s="13"/>
       <c r="L14" s="43"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="12"/>
@@ -2632,7 +2636,7 @@
       <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="12"/>
@@ -2642,7 +2646,7 @@
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="12"/>
@@ -2651,18 +2655,18 @@
       <c r="E17" s="13"/>
       <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:12" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="L18" s="59"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="12"/>
@@ -2672,7 +2676,7 @@
       <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="12"/>
@@ -2682,7 +2686,7 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="17"/>
@@ -2692,7 +2696,7 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="17"/>
@@ -2702,7 +2706,7 @@
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="17"/>
@@ -2712,7 +2716,7 @@
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="17"/>
@@ -2722,7 +2726,7 @@
       <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="17"/>
@@ -2732,7 +2736,7 @@
       <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="17"/>
@@ -2742,7 +2746,7 @@
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="17"/>
@@ -2752,7 +2756,7 @@
       <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="17"/>
@@ -2762,7 +2766,7 @@
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="17"/>
@@ -2772,7 +2776,7 @@
       <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="17"/>
@@ -2781,18 +2785,18 @@
       <c r="E30" s="13"/>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+    <row r="31" spans="1:12" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="L31" s="59"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="17"/>
@@ -2802,7 +2806,7 @@
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="17"/>
@@ -2812,7 +2816,7 @@
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="17"/>
@@ -2822,7 +2826,7 @@
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="17"/>
@@ -2832,7 +2836,7 @@
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="17"/>
@@ -2842,7 +2846,7 @@
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="59" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="17"/>
@@ -2852,7 +2856,7 @@
       <c r="L37" s="43"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="17"/>
@@ -2862,7 +2866,7 @@
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="17"/>
@@ -2872,7 +2876,7 @@
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="59" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="17"/>
@@ -2882,7 +2886,7 @@
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="17"/>
@@ -2892,7 +2896,7 @@
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="17"/>
@@ -2902,7 +2906,7 @@
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="17"/>
@@ -2912,7 +2916,7 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="59" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="17"/>
@@ -2921,18 +2925,18 @@
       <c r="E44" s="13"/>
       <c r="L44" s="43"/>
     </row>
-    <row r="45" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
+    <row r="45" spans="1:12" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="L45" s="59"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
+      <c r="L45" s="58"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="59" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="17"/>
@@ -2942,7 +2946,7 @@
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="59" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="17"/>
@@ -2952,7 +2956,7 @@
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="59" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="17"/>
@@ -2962,7 +2966,7 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="59" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="17"/>
@@ -2972,7 +2976,7 @@
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="59" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="17"/>
@@ -2982,7 +2986,7 @@
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="17"/>
@@ -2992,7 +2996,7 @@
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="59" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="17"/>
@@ -3002,7 +3006,7 @@
       <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="59" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="17"/>
@@ -3012,7 +3016,7 @@
       <c r="L53" s="43"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="59" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="17"/>
@@ -3022,7 +3026,7 @@
       <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="59" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="17"/>
@@ -3032,7 +3036,7 @@
       <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="17"/>
@@ -3042,7 +3046,7 @@
       <c r="L56" s="43"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="59" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="17"/>
@@ -3052,7 +3056,7 @@
       <c r="L57" s="43"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="59" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="17"/>
@@ -3062,7 +3066,7 @@
       <c r="L58" s="43"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="66" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="17"/>
@@ -3072,7 +3076,7 @@
       <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="60" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="17"/>
@@ -3082,7 +3086,7 @@
       <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="61" t="s">
         <v>75</v>
       </c>
       <c r="B61" s="17"/>
@@ -3092,7 +3096,7 @@
       <c r="L61" s="43"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B62" s="17"/>
@@ -3102,7 +3106,7 @@
       <c r="L62" s="43"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="17"/>
@@ -3112,7 +3116,7 @@
       <c r="L63" s="43"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="60" t="s">
         <v>78</v>
       </c>
       <c r="B64" s="17"/>
@@ -3122,7 +3126,7 @@
       <c r="L64" s="43"/>
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="17"/>
@@ -3132,7 +3136,7 @@
       <c r="L65" s="43"/>
     </row>
     <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="63" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="17"/>
@@ -3142,7 +3146,7 @@
       <c r="L66" s="43"/>
     </row>
     <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="17"/>
@@ -3152,7 +3156,7 @@
       <c r="L67" s="43"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B68" s="17"/>
@@ -3173,11 +3177,11 @@
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="6">
-        <f t="shared" ref="C56:C80" si="0">IF(B70&lt;SUM(E70:L70),SUM(E70:L70),B70)</f>
+        <f t="shared" ref="C70:C80" si="0">IF(B70&lt;SUM(E70:L70),SUM(E70:L70),B70)</f>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" ref="D56:D80" si="1">IF(C70&gt;B70,$C70-(SUM($E70:$L70)),$B70-(SUM($E70:$L70)))</f>
+        <f t="shared" ref="D70:D80" si="1">IF(C70&gt;B70,$C70-(SUM($E70:$L70)),$B70-(SUM($E70:$L70)))</f>
         <v>0</v>
       </c>
       <c r="E70" s="13"/>

--- a/Product Backlog - Actividades.xlsx
+++ b/Product Backlog - Actividades.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>TOTAL</t>
   </si>
@@ -42,30 +41,6 @@
     <t>Tiempo (restante)</t>
   </si>
   <si>
-    <t>Semana 18-23 Abril</t>
-  </si>
-  <si>
-    <t>Semana 25-30 Abril</t>
-  </si>
-  <si>
-    <t>Semana 2-7 Mayo</t>
-  </si>
-  <si>
-    <t>Semana 9-14 Mayo</t>
-  </si>
-  <si>
-    <t>Semana 16-21 Mayo</t>
-  </si>
-  <si>
-    <t>Semana 23-28 Mayo</t>
-  </si>
-  <si>
-    <t>Semana 30-4 Junio</t>
-  </si>
-  <si>
-    <t>Semana 6-11 Junio</t>
-  </si>
-  <si>
     <t>Tiempo restante (estimado)</t>
   </si>
   <si>
@@ -240,41 +215,41 @@
     <t>Cuarto Sprint</t>
   </si>
   <si>
-    <t>5.1.1 Acta de constitución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.2 Definición del alcance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.3 Creación del EDT </t>
-  </si>
-  <si>
-    <t>5.1.4 Actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.5 Cronograma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.6 Seguimiento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.7 Cierre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.8 Manual de usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.9 Acta de capacitación </t>
-  </si>
-  <si>
-    <t>Actividades Administrativas</t>
+    <t>Reportes Puesta en Produccion</t>
+  </si>
+  <si>
+    <t>Pruebas de Postproduccion</t>
+  </si>
+  <si>
+    <t>Semana 25 - 31 Diciembre</t>
+  </si>
+  <si>
+    <t>Semana 1 - 7 Enero</t>
+  </si>
+  <si>
+    <t>Semana 8 - 15 Enero</t>
+  </si>
+  <si>
+    <t>Semana 15 - 22 Enero</t>
+  </si>
+  <si>
+    <t>Semana 23 - 30 Enero</t>
+  </si>
+  <si>
+    <t>Semana 31 - 6 Febrero</t>
+  </si>
+  <si>
+    <t>Semana 7 - 14 Febrero</t>
+  </si>
+  <si>
+    <t>Semana 15 - 22 Febrero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,19 +321,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,14 +369,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -634,24 +596,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -793,9 +742,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -812,547 +758,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFADCB3"/>
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -1645,7 +1090,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cronograma!$C$84</c:f>
+              <c:f>Cronograma!$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1668,43 +1113,43 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Cronograma!$D$83:$L$83</c:f>
+              <c:f>Cronograma!$D$75:$L$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cronograma!$D$84:$L$84</c:f>
+              <c:f>Cronograma!$D$76:$L$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1752,11 +1197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89037824"/>
-        <c:axId val="91812992"/>
+        <c:axId val="91065344"/>
+        <c:axId val="91120768"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="89037824"/>
+        <c:axId val="91065344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1240,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91812992"/>
+        <c:crossAx val="91120768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1248,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91812992"/>
+        <c:axId val="91120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1292,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037824"/>
+        <c:crossAx val="91065344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1875,13 +1320,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2159,7 +1604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2167,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM147"/>
+  <dimension ref="A1:BM139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2182,12 +1627,14 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="16" width="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" customWidth="1"/>
     <col min="18" max="65" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
@@ -2201,28 +1648,28 @@
         <v>7</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
@@ -2290,7 +1737,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="48"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -2346,8 +1793,8 @@
       <c r="BM2" s="3"/>
     </row>
     <row r="3" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>31</v>
+      <c r="A3" s="59" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2415,775 +1862,1137 @@
       <c r="BM3" s="11"/>
     </row>
     <row r="4" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="44"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
       <c r="BM4" s="15"/>
     </row>
     <row r="5" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="L5" s="43"/>
-      <c r="M5" s="69"/>
+      <c r="M5" s="61"/>
       <c r="BM5" s="15"/>
     </row>
     <row r="6" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="L6" s="43"/>
-      <c r="M6" s="70"/>
+      <c r="M6" s="62"/>
       <c r="BM6" s="15"/>
     </row>
     <row r="7" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="H7" s="14"/>
       <c r="L7" s="43"/>
-      <c r="M7" s="70"/>
+      <c r="M7" s="62"/>
       <c r="BM7" s="15"/>
     </row>
     <row r="8" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="70"/>
+      <c r="M8" s="62"/>
       <c r="BM8" s="15"/>
     </row>
     <row r="9" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="K9" s="14"/>
       <c r="L9" s="44"/>
       <c r="BM9" s="15"/>
     </row>
     <row r="10" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="L11" s="43"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="L12" s="43"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>31</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="L13" s="43"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="L14" s="43"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13"/>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="L18" s="59"/>
+        <v>63</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="17">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
       <c r="E21" s="13"/>
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="17">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="17">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="17">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="17">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="17">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="17">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>84</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="17">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="17">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="L31" s="59"/>
+    <row r="31" spans="1:12" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="17">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
       <c r="E32" s="13"/>
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="17">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="17">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>6</v>
+      </c>
       <c r="E34" s="13"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="17">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="17">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="17">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="L37" s="43"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="17">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
       <c r="E38" s="13"/>
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="17">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="17">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
       <c r="E40" s="13"/>
       <c r="L40" s="43"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="17">
+        <v>74</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>74</v>
+      </c>
       <c r="E41" s="13"/>
       <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="17">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>5</v>
+      </c>
       <c r="E42" s="13"/>
       <c r="L42" s="43"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="17">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="17">
+        <v>6</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>6</v>
+      </c>
       <c r="E44" s="13"/>
       <c r="L44" s="43"/>
     </row>
-    <row r="45" spans="1:12" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="L45" s="59"/>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="L45" s="57"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="17">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>6</v>
+      </c>
       <c r="E46" s="13"/>
       <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="17">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
       <c r="E47" s="13"/>
       <c r="L47" s="43"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="17">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6</v>
+      </c>
       <c r="E48" s="13"/>
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="17">
+        <v>3</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
       <c r="E49" s="13"/>
       <c r="L49" s="43"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="17">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7</v>
+      </c>
       <c r="E50" s="13"/>
       <c r="L50" s="43"/>
     </row>
     <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="17">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>6</v>
+      </c>
       <c r="E51" s="13"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
       <c r="E52" s="13"/>
       <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="17">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4</v>
+      </c>
       <c r="E53" s="13"/>
       <c r="L53" s="43"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="17">
+        <v>12</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>12</v>
+      </c>
       <c r="E54" s="13"/>
       <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="17">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>78</v>
+      </c>
       <c r="E55" s="13"/>
       <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="17">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5</v>
+      </c>
       <c r="E56" s="13"/>
       <c r="L56" s="43"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="17">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6</v>
+      </c>
       <c r="E57" s="13"/>
       <c r="L57" s="43"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="17">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7</v>
+      </c>
       <c r="E58" s="13"/>
       <c r="L58" s="43"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="15">
+        <v>10</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>10</v>
+      </c>
       <c r="E59" s="13"/>
       <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="15">
+        <v>11</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>11</v>
+      </c>
       <c r="E60" s="13"/>
       <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="13"/>
       <c r="L61" s="43"/>
     </row>
-    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63" t="s">
-        <v>76</v>
-      </c>
+    <row r="62" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
       <c r="B62" s="17"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="6">
+        <f t="shared" ref="C62:C72" si="0">IF(B62&lt;SUM(E62:L62),SUM(E62:L62),B62)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" ref="D62:D72" si="1">IF(C62&gt;B62,$C62-(SUM($E62:$L62)),$B62-(SUM($E62:$L62)))</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="13"/>
       <c r="L62" s="43"/>
     </row>
-    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
-        <v>77</v>
-      </c>
+    <row r="63" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E63" s="13"/>
       <c r="L63" s="43"/>
     </row>
-    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="61" t="s">
-        <v>78</v>
-      </c>
+    <row r="64" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E64" s="13"/>
       <c r="L64" s="43"/>
     </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
-        <v>79</v>
-      </c>
+    <row r="65" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E65" s="13"/>
       <c r="L65" s="43"/>
     </row>
-    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
-        <v>80</v>
-      </c>
+    <row r="66" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
       <c r="B66" s="17"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="C66" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E66" s="13"/>
       <c r="L66" s="43"/>
     </row>
-    <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
-        <v>81</v>
-      </c>
+    <row r="67" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="C67" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E67" s="13"/>
       <c r="L67" s="43"/>
     </row>
-    <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63" t="s">
-        <v>82</v>
-      </c>
+    <row r="68" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
+      <c r="C68" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E68" s="13"/>
       <c r="L68" s="43"/>
     </row>
-    <row r="69" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E69" s="13"/>
       <c r="L69" s="43"/>
     </row>
-    <row r="70" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="6">
-        <f t="shared" ref="C56:C80" si="0">IF(B70&lt;SUM(E70:L70),SUM(E70:L70),B70)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" ref="D56:D80" si="1">IF(C70&gt;B70,$C70-(SUM($E70:$L70)),$B70-(SUM($E70:$L70)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70" s="13"/>
       <c r="L70" s="43"/>
     </row>
-    <row r="71" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="6">
@@ -3197,9 +3006,9 @@
       <c r="E71" s="13"/>
       <c r="L71" s="43"/>
     </row>
-    <row r="72" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
+    <row r="72" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3208,315 +3017,227 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="L72" s="43"/>
-    </row>
-    <row r="73" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="L73" s="43"/>
-    </row>
-    <row r="74" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="L74" s="43"/>
-    </row>
-    <row r="75" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="L75" s="43"/>
-    </row>
-    <row r="76" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="L76" s="43"/>
-    </row>
-    <row r="77" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="L77" s="43"/>
-    </row>
-    <row r="78" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="L78" s="43"/>
-    </row>
-    <row r="79" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="L79" s="43"/>
-    </row>
-    <row r="80" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="45"/>
-    </row>
-    <row r="81" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="23">
-        <f>SUM(B3:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="24">
-        <f>SUM(C3:C80)</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="24">
-        <f>SUM(D3:D80)</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="25">
-        <f t="shared" ref="E81:L81" si="2">SUM(E3:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="25">
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="45"/>
+    </row>
+    <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="23">
+        <f>SUM(B3:B72)</f>
+        <v>564</v>
+      </c>
+      <c r="C73" s="24">
+        <f>SUM(C3:C72)</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="24">
+        <f>SUM(D3:D72)</f>
+        <v>564</v>
+      </c>
+      <c r="E73" s="25">
+        <f>SUM(E3:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="25">
+        <f>SUM(F3:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="25">
+        <f>SUM(G3:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="25">
+        <f>SUM(H3:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="25">
+        <f>SUM(I3:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="25">
+        <f>SUM(J3:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="25">
+        <f>SUM(K3:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="48">
+        <f>SUM(L3:L56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="27">
+        <f>B73-SUM(E74:L74)</f>
+        <v>564</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="49"/>
+    </row>
+    <row r="75" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="35">
+        <f>B73</f>
+        <v>564</v>
+      </c>
+      <c r="E75" s="36">
+        <f t="shared" ref="E75:L75" si="2">D75-E74</f>
+        <v>564</v>
+      </c>
+      <c r="F75" s="36">
+        <f>E75-F74</f>
+        <v>564</v>
+      </c>
+      <c r="G75" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="25">
+        <v>564</v>
+      </c>
+      <c r="H75" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="25">
+        <v>564</v>
+      </c>
+      <c r="I75" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="25">
+        <v>564</v>
+      </c>
+      <c r="J75" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="25">
+        <v>564</v>
+      </c>
+      <c r="K75" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="25">
+        <v>564</v>
+      </c>
+      <c r="L75" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="27">
-        <f>B81-SUM(E82:L82)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="50"/>
-    </row>
-    <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="35">
-        <f>B81</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="36">
-        <f t="shared" ref="E83:L83" si="3">D83-E82</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="36">
-        <f>E83-F82</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="35">
-        <f>C81</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="46">
-        <f>$C$81-SUM(E$3:E$80)</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="46">
-        <f t="shared" ref="F84:L84" si="4">E84-SUM(F3:F80)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D76" s="35">
+        <f>C73</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="46">
+        <f>$C$73-SUM(E$3:E$72)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="46">
+        <f>E76-SUM(F3:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="46">
+        <f>F76-SUM(G3:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="46">
+        <f>G76-SUM(H3:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="46">
+        <f>H76-SUM(I3:I72)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="46">
+        <f>I76-SUM(J3:J72)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="46">
+        <f>J76-SUM(K3:K72)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="51">
+        <f>K76-SUM(L3:L72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="37"/>
+    </row>
+    <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="37"/>
+    </row>
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="37"/>
+    </row>
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="37"/>
+    </row>
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="37"/>
+    </row>
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="37"/>
+    </row>
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="37"/>
+    </row>
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="37"/>
+    </row>
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
     </row>
-    <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
     </row>
-    <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
     </row>
-    <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
     </row>
-    <row r="93" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
     </row>
-    <row r="94" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
     </row>
-    <row r="95" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
     </row>
-    <row r="96" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
     </row>
     <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3647,30 +3368,6 @@
     </row>
     <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
-    </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="37"/>
-    </row>
-    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="37"/>
-    </row>
-    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="37"/>
-    </row>
-    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="37"/>
-    </row>
-    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="37"/>
-    </row>
-    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="37"/>
-    </row>
-    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="37"/>
-    </row>
-    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3679,223 +3376,83 @@
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="N14:R14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A83:L84">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="lessThan">
+  <conditionalFormatting sqref="A75:L76">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="13" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="lessThan">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="cellIs" dxfId="12" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BM4 E9:BM10 E5:M5 E6:L8 R5:BM8 E15:BM41 E11:N14 S11:BM14 E52:BM58 E68:BM80">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="E3:BM4 E9:BM10 E5:M5 E6:L8 R5:BM8 E11:N14 S11:BM14 E15:BM41 E52:BM72">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="D3:D41 D52:D72">
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="greaterThan">
+  <conditionalFormatting sqref="B74">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="7" priority="41" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+  <conditionalFormatting sqref="D3:D41 D52:D72">
+    <cfRule type="cellIs" dxfId="5" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D41 D52:D58 D68:D80">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="lessThan">
+  <conditionalFormatting sqref="D3:D41 D52:D72">
+    <cfRule type="cellIs" dxfId="4" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:BM51">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D51">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D51">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D51">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:BM67">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:BM66">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:BM64">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:BM63">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:BM62">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:BM61">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D61">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:BM59">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
